--- a/расписание на четверг.xlsx
+++ b/расписание на четверг.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b28425dc8058990/Рабочий стол/проект/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_admin\PycharmProjects\telegrambot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA7ECF8-D06C-4FA2-A53A-16B00A22F65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA88222D-75B2-4EC2-BB32-AB5FF69FCACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17070" yWindow="0" windowWidth="17430" windowHeight="20985" xr2:uid="{F69032F8-4414-475C-8F3F-12788C454B36}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{F69032F8-4414-475C-8F3F-12788C454B36}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -395,9 +395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -435,7 +435,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -541,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -693,16 +693,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522E07E1-37BC-4EB2-A260-06B1BC27E865}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,7 +755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -776,7 +776,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -817,7 +817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -846,7 +846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -863,7 +863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -874,7 +874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -897,7 +897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -949,7 +949,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -975,7 +975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
